--- a/data/tree/Tree_info.xlsx
+++ b/data/tree/Tree_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron M\Documents\GitHub\Arctic-Treeline-project\data\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0835918-A9A3-47F1-AE20-703D68799FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ABDB1D-3FE1-4E57-8035-CBDBCA2B2C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{993366D4-2692-4D4F-BD9C-DAD0D82A7174}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{993366D4-2692-4D4F-BD9C-DAD0D82A7174}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="201">
   <si>
     <t>Mesic</t>
   </si>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>67° 28' 2.681" N</t>
-  </si>
-  <si>
-    <t>Fertilized past</t>
   </si>
   <si>
     <t>162° 12' 38.816" W</t>
@@ -995,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB28566-5ACA-47C3-A5AB-1CC8A724E9DC}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1007,31 +1004,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
         <v>193</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>194</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>195</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>196</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>197</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>198</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>199</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>200</v>
-      </c>
-      <c r="I1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -2576,16 +2573,16 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" t="s">
         <v>113</v>
-      </c>
-      <c r="E55" t="s">
-        <v>114</v>
       </c>
       <c r="F55">
         <v>-162.21078199999999</v>
@@ -2605,16 +2602,16 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
       <c r="D56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" t="s">
         <v>115</v>
-      </c>
-      <c r="E56" t="s">
-        <v>116</v>
       </c>
       <c r="F56">
         <v>-162.211457</v>
@@ -2634,16 +2631,16 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" t="s">
         <v>117</v>
-      </c>
-      <c r="E57" t="s">
-        <v>118</v>
       </c>
       <c r="F57">
         <v>-162.211645</v>
@@ -2663,16 +2660,16 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C58">
         <v>4</v>
       </c>
       <c r="D58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" t="s">
         <v>119</v>
-      </c>
-      <c r="E58" t="s">
-        <v>120</v>
       </c>
       <c r="F58">
         <v>-162.21276499999999</v>
@@ -2692,16 +2689,16 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C59">
         <v>5</v>
       </c>
       <c r="D59" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" t="s">
         <v>121</v>
-      </c>
-      <c r="E59" t="s">
-        <v>122</v>
       </c>
       <c r="F59">
         <v>-162.21402900000001</v>
@@ -2718,19 +2715,19 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
         <v>123</v>
-      </c>
-      <c r="B60" t="s">
-        <v>124</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" t="s">
         <v>125</v>
-      </c>
-      <c r="E60" t="s">
-        <v>126</v>
       </c>
       <c r="F60">
         <v>-162.19555199999999</v>
@@ -2747,19 +2744,19 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
         <v>123</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" t="s">
         <v>127</v>
-      </c>
-      <c r="E61" t="s">
-        <v>128</v>
       </c>
       <c r="F61">
         <v>-162.19734600000001</v>
@@ -2776,19 +2773,19 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
         <v>123</v>
-      </c>
-      <c r="B62" t="s">
-        <v>124</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
       <c r="D62" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" t="s">
         <v>129</v>
-      </c>
-      <c r="E62" t="s">
-        <v>130</v>
       </c>
       <c r="F62">
         <v>-162.19761</v>
@@ -2805,19 +2802,19 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
         <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
       </c>
       <c r="C63">
         <v>4</v>
       </c>
       <c r="D63" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" t="s">
         <v>131</v>
-      </c>
-      <c r="E63" t="s">
-        <v>132</v>
       </c>
       <c r="F63">
         <v>-162.19659799999999</v>
@@ -2834,19 +2831,19 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" t="s">
         <v>123</v>
-      </c>
-      <c r="B64" t="s">
-        <v>124</v>
       </c>
       <c r="C64">
         <v>5</v>
       </c>
       <c r="D64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" t="s">
         <v>133</v>
-      </c>
-      <c r="E64" t="s">
-        <v>134</v>
       </c>
       <c r="F64">
         <v>-162.197912</v>
@@ -2863,7 +2860,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -2872,10 +2869,10 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" t="s">
         <v>135</v>
-      </c>
-      <c r="E65" t="s">
-        <v>136</v>
       </c>
       <c r="F65">
         <v>-162.19900799999999</v>
@@ -2892,7 +2889,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -2901,10 +2898,10 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" t="s">
         <v>137</v>
-      </c>
-      <c r="E66" t="s">
-        <v>138</v>
       </c>
       <c r="F66">
         <v>-162.20034200000001</v>
@@ -2921,7 +2918,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
@@ -2930,10 +2927,10 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" t="s">
         <v>139</v>
-      </c>
-      <c r="E67" t="s">
-        <v>140</v>
       </c>
       <c r="F67">
         <v>-162.199996</v>
@@ -2950,7 +2947,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
@@ -2959,10 +2956,10 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" t="s">
         <v>141</v>
-      </c>
-      <c r="E68" t="s">
-        <v>142</v>
       </c>
       <c r="F68">
         <v>-162.19975400000001</v>
@@ -2979,7 +2976,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -2988,10 +2985,10 @@
         <v>5</v>
       </c>
       <c r="D69" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" t="s">
         <v>143</v>
-      </c>
-      <c r="E69" t="s">
-        <v>144</v>
       </c>
       <c r="F69">
         <v>-162.200065</v>
@@ -3008,7 +3005,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -3017,10 +3014,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" t="s">
         <v>145</v>
-      </c>
-      <c r="E70" t="s">
-        <v>146</v>
       </c>
       <c r="F70">
         <v>-162.19743399999999</v>
@@ -3037,7 +3034,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
@@ -3046,10 +3043,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" t="s">
         <v>147</v>
-      </c>
-      <c r="E71" t="s">
-        <v>148</v>
       </c>
       <c r="F71">
         <v>-162.19777099999999</v>
@@ -3066,7 +3063,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -3075,10 +3072,10 @@
         <v>8</v>
       </c>
       <c r="D72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" t="s">
         <v>149</v>
-      </c>
-      <c r="E72" t="s">
-        <v>150</v>
       </c>
       <c r="F72">
         <v>-162.198036</v>
@@ -3095,7 +3092,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -3104,10 +3101,10 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" t="s">
         <v>151</v>
-      </c>
-      <c r="E73" t="s">
-        <v>152</v>
       </c>
       <c r="F73">
         <v>-162.19973899999999</v>
@@ -3124,7 +3121,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
@@ -3133,10 +3130,10 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" t="s">
         <v>153</v>
-      </c>
-      <c r="E74" t="s">
-        <v>154</v>
       </c>
       <c r="F74">
         <v>-162.199761</v>
@@ -3153,7 +3150,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
@@ -3162,10 +3159,10 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" t="s">
         <v>155</v>
-      </c>
-      <c r="E75" t="s">
-        <v>156</v>
       </c>
       <c r="F75">
         <v>-162.19989799999999</v>
@@ -3182,7 +3179,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B76" t="s">
         <v>18</v>
@@ -3191,10 +3188,10 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
+        <v>156</v>
+      </c>
+      <c r="E76" t="s">
         <v>157</v>
-      </c>
-      <c r="E76" t="s">
-        <v>158</v>
       </c>
       <c r="F76">
         <v>-162.19867500000001</v>
@@ -3211,7 +3208,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
@@ -3220,10 +3217,10 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
+        <v>158</v>
+      </c>
+      <c r="E77" t="s">
         <v>159</v>
-      </c>
-      <c r="E77" t="s">
-        <v>160</v>
       </c>
       <c r="F77">
         <v>-162.197836</v>
@@ -3240,7 +3237,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
@@ -3249,10 +3246,10 @@
         <v>6</v>
       </c>
       <c r="D78" t="s">
+        <v>160</v>
+      </c>
+      <c r="E78" t="s">
         <v>161</v>
-      </c>
-      <c r="E78" t="s">
-        <v>162</v>
       </c>
       <c r="F78">
         <v>-162.197543</v>
@@ -3269,7 +3266,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
@@ -3278,10 +3275,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
+        <v>162</v>
+      </c>
+      <c r="E79" t="s">
         <v>163</v>
-      </c>
-      <c r="E79" t="s">
-        <v>164</v>
       </c>
       <c r="F79">
         <v>-162.19808599999999</v>
@@ -3298,7 +3295,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B80" t="s">
         <v>18</v>
@@ -3307,10 +3304,10 @@
         <v>8</v>
       </c>
       <c r="D80" t="s">
+        <v>164</v>
+      </c>
+      <c r="E80" t="s">
         <v>165</v>
-      </c>
-      <c r="E80" t="s">
-        <v>166</v>
       </c>
       <c r="F80">
         <v>-162.197889</v>
@@ -3327,7 +3324,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
         <v>35</v>
@@ -3336,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
+        <v>166</v>
+      </c>
+      <c r="E81" t="s">
         <v>167</v>
-      </c>
-      <c r="E81" t="s">
-        <v>168</v>
       </c>
       <c r="F81">
         <v>-162.200121</v>
@@ -3356,7 +3353,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B82" t="s">
         <v>35</v>
@@ -3365,10 +3362,10 @@
         <v>2</v>
       </c>
       <c r="D82" t="s">
+        <v>168</v>
+      </c>
+      <c r="E82" t="s">
         <v>169</v>
-      </c>
-      <c r="E82" t="s">
-        <v>170</v>
       </c>
       <c r="F82">
         <v>-162.199141</v>
@@ -3385,7 +3382,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83" t="s">
         <v>35</v>
@@ -3394,10 +3391,10 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
+        <v>170</v>
+      </c>
+      <c r="E83" t="s">
         <v>171</v>
-      </c>
-      <c r="E83" t="s">
-        <v>172</v>
       </c>
       <c r="F83">
         <v>-162.19902500000001</v>
@@ -3414,7 +3411,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B84" t="s">
         <v>35</v>
@@ -3423,10 +3420,10 @@
         <v>4</v>
       </c>
       <c r="D84" t="s">
+        <v>172</v>
+      </c>
+      <c r="E84" t="s">
         <v>173</v>
-      </c>
-      <c r="E84" t="s">
-        <v>174</v>
       </c>
       <c r="F84">
         <v>-162.19895600000001</v>
@@ -3443,7 +3440,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85" t="s">
         <v>35</v>
@@ -3452,10 +3449,10 @@
         <v>5</v>
       </c>
       <c r="D85" t="s">
+        <v>174</v>
+      </c>
+      <c r="E85" t="s">
         <v>175</v>
-      </c>
-      <c r="E85" t="s">
-        <v>176</v>
       </c>
       <c r="F85">
         <v>-162.19712999999999</v>
@@ -3472,7 +3469,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B86" t="s">
         <v>35</v>
@@ -3481,10 +3478,10 @@
         <v>6</v>
       </c>
       <c r="D86" t="s">
+        <v>176</v>
+      </c>
+      <c r="E86" t="s">
         <v>177</v>
-      </c>
-      <c r="E86" t="s">
-        <v>178</v>
       </c>
       <c r="F86">
         <v>-162.19753399999999</v>
@@ -3501,7 +3498,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
         <v>35</v>
@@ -3510,10 +3507,10 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
+        <v>178</v>
+      </c>
+      <c r="E87" t="s">
         <v>179</v>
-      </c>
-      <c r="E87" t="s">
-        <v>180</v>
       </c>
       <c r="F87">
         <v>-162.19787099999999</v>
@@ -3530,7 +3527,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B88" t="s">
         <v>35</v>
@@ -3539,10 +3536,10 @@
         <v>8</v>
       </c>
       <c r="D88" t="s">
+        <v>180</v>
+      </c>
+      <c r="E88" t="s">
         <v>181</v>
-      </c>
-      <c r="E88" t="s">
-        <v>182</v>
       </c>
       <c r="F88">
         <v>-162.198173</v>
@@ -3559,19 +3556,19 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B89" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" t="s">
+        <v>182</v>
+      </c>
+      <c r="E89" t="s">
         <v>183</v>
-      </c>
-      <c r="E89" t="s">
-        <v>184</v>
       </c>
       <c r="F89">
         <v>-162.197632</v>
@@ -3588,19 +3585,19 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90" t="s">
+        <v>184</v>
+      </c>
+      <c r="E90" t="s">
         <v>185</v>
-      </c>
-      <c r="E90" t="s">
-        <v>186</v>
       </c>
       <c r="F90">
         <v>-162.19744</v>
@@ -3617,19 +3614,19 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
       <c r="D91" t="s">
+        <v>186</v>
+      </c>
+      <c r="E91" t="s">
         <v>187</v>
-      </c>
-      <c r="E91" t="s">
-        <v>188</v>
       </c>
       <c r="F91">
         <v>-162.19698600000001</v>
@@ -3646,19 +3643,19 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B92" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C92">
         <v>4</v>
       </c>
       <c r="D92" t="s">
+        <v>188</v>
+      </c>
+      <c r="E92" t="s">
         <v>189</v>
-      </c>
-      <c r="E92" t="s">
-        <v>190</v>
       </c>
       <c r="F92">
         <v>-162.19809900000001</v>
@@ -3675,19 +3672,19 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B93" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C93">
         <v>5</v>
       </c>
       <c r="D93" t="s">
+        <v>190</v>
+      </c>
+      <c r="E93" t="s">
         <v>191</v>
-      </c>
-      <c r="E93" t="s">
-        <v>192</v>
       </c>
       <c r="F93">
         <v>-162.19812099999999</v>
